--- a/shinyapp/data/healthsep.xlsx
+++ b/shinyapp/data/healthsep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332F6EAA-8679-B44F-829F-6AF864DE04F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631641F-0A94-AB42-B84B-9B31C2218565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15220" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
   </bookViews>

--- a/shinyapp/data/healthsep.xlsx
+++ b/shinyapp/data/healthsep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631641F-0A94-AB42-B84B-9B31C2218565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99427AA4-5A83-844E-B55B-828E128FF281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15220" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14040" windowHeight="15880" firstSheet="4" activeTab="7" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="299">
   <si>
     <t>Food Pantry</t>
   </si>
@@ -52,9 +52,6 @@
     <t>21630 Ridgetop Circle, Sterling, VA 20166</t>
   </si>
   <si>
-    <t>Free Family Essentials and COVID Relief</t>
-  </si>
-  <si>
     <t>304 East Church Road, Sterling, VA 20164</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>2938 Prosperity Avenue, Fairfax, VA 22031</t>
   </si>
   <si>
-    <t>Warehouse Food Distribution</t>
-  </si>
-  <si>
     <t>46833 Harry Byrd Highway, Sterling, VA 20164</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>102 Elden Street, Herndon, VA, 20170</t>
   </si>
   <si>
-    <t>Pregnancy Services by A Woman's Choice</t>
-  </si>
-  <si>
     <t>10 Cardinal Park Drive Southeast, Leesburg, VA 20175</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>21010 South Bank St , Sterling, VA 20165</t>
   </si>
   <si>
-    <t>Supportive Tools for Advanceent and Restoration by By Your Side Ministries Inc.</t>
-  </si>
-  <si>
     <t>46950 Community Plaza, Sterling, VA 20164</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
     <t>3023 Hamaker Court, Fairfax, VA 22031</t>
   </si>
   <si>
-    <t>Child Development Porgram by Children's National Health System</t>
-  </si>
-  <si>
     <t>8609 Sudley Road, Manassas, VA, 20110</t>
   </si>
   <si>
@@ -373,9 +358,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Physical Therapy by Pivot Physical Therapy of Virgina </t>
-  </si>
-  <si>
     <t>Loudoun Hunger Relief Food Pantry</t>
   </si>
   <si>
@@ -508,9 +490,6 @@
     <t>Provides clothing, school supplies, and haircuts</t>
   </si>
   <si>
-    <t>Provides maternity and baby clothes, English and Spanish,</t>
-  </si>
-  <si>
     <t>Monday: 8:30 AM - 4:30 PM EDTTuesday: 8:30 AM - 4:30 PM EDTWednesday: 8:30 AM - 7:30 PM EDTThursday: 8:30 AM - 4:30 PM EDTFriday: 8:30 AM - 4:30 PM EDTSaturday: 10:00 AM - 12:00 PM EDT</t>
   </si>
   <si>
@@ -761,13 +740,211 @@
   </si>
   <si>
     <t>Langauge</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.loudounhunger.org/</t>
+  </si>
+  <si>
+    <t>Inmed Partnerships for Children</t>
+  </si>
+  <si>
+    <t>https://inmedusa.org/adult-programs/</t>
+  </si>
+  <si>
+    <t>http://www.sterlingumc.org/serve/serve-the-community/</t>
+  </si>
+  <si>
+    <t>https://www.dsfp.org/</t>
+  </si>
+  <si>
+    <t>https://www.foodforothers.org/warehouse-distributions/</t>
+  </si>
+  <si>
+    <t>Food for Others, INC.</t>
+  </si>
+  <si>
+    <t>https://www.linkagainsthunger.org/</t>
+  </si>
+  <si>
+    <t>https://www.adamscenter.org/sterling</t>
+  </si>
+  <si>
+    <t>https://www.crossroadsnova.org/grace-ministries</t>
+  </si>
+  <si>
+    <t>https://mcleanbible.org/loudoun/local-outreach/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/1578/WIC-Program</t>
+  </si>
+  <si>
+    <t>https://www.tolministries.org/the-clothing-closet/</t>
+  </si>
+  <si>
+    <t>https://womengivingback.org/</t>
+  </si>
+  <si>
+    <t>Provides maternity and baby clothes</t>
+  </si>
+  <si>
+    <t>A Woman's Choice</t>
+  </si>
+  <si>
+    <t>https://www.awomanschoicecenter.com/page/2-Free%20Services/</t>
+  </si>
+  <si>
+    <t>https://salvationarmypotomac.org/</t>
+  </si>
+  <si>
+    <t>https://www.mobilehopeloudoun.org/what-we-do/</t>
+  </si>
+  <si>
+    <t>https://therapeuticalliancellc.com/mental-health-services/family-counseling-services/</t>
+  </si>
+  <si>
+    <t>https://therapeuticalliancellc.com/mental-health-services/autism-behavior-services/</t>
+  </si>
+  <si>
+    <t>http://ipscenter.org/psychotherapy/</t>
+  </si>
+  <si>
+    <t>http://www.safeharbor1.com/index.php</t>
+  </si>
+  <si>
+    <t>https://healthconnectamerica.com/services/behavioral-therapy-services/</t>
+  </si>
+  <si>
+    <t>https://adoptionsupport.org/</t>
+  </si>
+  <si>
+    <t>Supportive Tools for Advancement and Restoration by By Your Side Ministries Inc.</t>
+  </si>
+  <si>
+    <t>http://bysm.org/</t>
+  </si>
+  <si>
+    <t>https://wind-opt.com/</t>
+  </si>
+  <si>
+    <t>http://www.fcsva.org/</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/healthcare-services/hiv/clinical</t>
+  </si>
+  <si>
+    <t>http://lcsj.org/</t>
+  </si>
+  <si>
+    <t>https://www.vaoxfordhouse.org/how-to-apply/</t>
+  </si>
+  <si>
+    <t>http://meridiansrecovery.org/meridians_recovery_model</t>
+  </si>
+  <si>
+    <t>http://meridiansrecovery.org/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/index.aspx?NID=121</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/our-services/behavioral-health-services/programs-and-services/inova-cats-program/services/intensive-outpatient</t>
+  </si>
+  <si>
+    <t>http://fccgw.org/</t>
+  </si>
+  <si>
+    <t>http://www.novadentalclinic.org/referring-agencies/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/index.aspx?nid=1258</t>
+  </si>
+  <si>
+    <t>https://hwnova.org/service/dental-services/</t>
+  </si>
+  <si>
+    <t>https://www.tolministries.org/branches/healthcare/</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/inova-medical-group/primary-care</t>
+  </si>
+  <si>
+    <t>https://www.patientfirst.com/services/primary-care</t>
+  </si>
+  <si>
+    <t>https://hwnova.org/service/medical-services/</t>
+  </si>
+  <si>
+    <t>Child Development Program by Children's National Health System</t>
+  </si>
+  <si>
+    <t>https://childrensnational.org/departments/child-development-program</t>
+  </si>
+  <si>
+    <t>Children's National Health System</t>
+  </si>
+  <si>
+    <t>Pediatric primary and comprehensive care</t>
+  </si>
+  <si>
+    <t>https://childrensnational.org/primary-care</t>
+  </si>
+  <si>
+    <t>Monday - Thursday 8:30 - 5:00, Friday 8:30 - 12:00, Saturday 9:00 - 12:00</t>
+  </si>
+  <si>
+    <t>550 Quince Orchard Road, Gaithersburg, MD 20878</t>
+  </si>
+  <si>
+    <t>https://childrensnational.org/departments/center-for-neuroscience-and-behavioral-medicine/programs-and-services/hearing-and-speech</t>
+  </si>
+  <si>
+    <t>Hearing and Speech Center by Children's National Health System</t>
+  </si>
+  <si>
+    <t>Provides screenings, evaluations, treatment and management for hearing and communication disorders</t>
+  </si>
+  <si>
+    <t>Monday - Friday 8:30 - 4:30</t>
+  </si>
+  <si>
+    <t>English, Spanish</t>
+  </si>
+  <si>
+    <t>9850 Key West Avenue, Rockville, MD 20850</t>
+  </si>
+  <si>
+    <t>http://valleyhealthclinic.org/</t>
+  </si>
+  <si>
+    <t>http://firstchoicehome.care/services-page/</t>
+  </si>
+  <si>
+    <t>http://cpgva.com/</t>
+  </si>
+  <si>
+    <t>https://www.neighborhoodhealthtn.org/</t>
+  </si>
+  <si>
+    <t>http://speechhearing.org/</t>
+  </si>
+  <si>
+    <t>http://nationalspeech.com/</t>
+  </si>
+  <si>
+    <t>Physical Therapy by Pivot Physical Therapy of Virginia</t>
+  </si>
+  <si>
+    <t>https://www.pivotphysicaltherapy.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -820,6 +997,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -842,7 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -855,6 +1039,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1170,51 +1355,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED281DF8-A059-C649-B840-3FA6955A4302}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="9" width="61.6640625" customWidth="1"/>
+    <col min="7" max="8" width="21.1640625" customWidth="1"/>
+    <col min="9" max="10" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1228,25 +1416,28 @@
         <v>-77.402006200000002</v>
       </c>
       <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
+      <c r="H2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1260,25 +1451,28 @@
         <v>-77.382812299999998</v>
       </c>
       <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>115</v>
+      <c r="H3" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1292,25 +1486,28 @@
         <v>-77.408413899999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
+        <v>235</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1324,25 +1521,28 @@
         <v>-77.392816800000006</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1356,25 +1556,28 @@
         <v>-77.532362000000006</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>144</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1388,25 +1591,28 @@
         <v>-77.2368594</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>146</v>
+        <v>240</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1420,25 +1626,28 @@
         <v>-77.379435099999995</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>147</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1452,25 +1661,28 @@
         <v>-77.379055100000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1484,25 +1696,28 @@
         <v>-77.497559300000006</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1516,25 +1731,28 @@
         <v>-77.252410999999995</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>148</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1548,93 +1766,106 @@
         <v>-77.435420399999998</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="3"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="3"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="6"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
-      <c r="J16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{AEA8528C-53A2-6A4D-B4CC-6035D2EBAE81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A4A50A-4A53-C540-8D4A-7EEAF78263BE}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1646,27 +1877,30 @@
         <v>-77.426618700000006</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1678,27 +1912,30 @@
         <v>-77.392816800000006</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1710,27 +1947,30 @@
         <v>-77.457413900000006</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1742,27 +1982,30 @@
         <v>-77.715368299999994</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="G5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="H5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1774,27 +2017,30 @@
         <v>-77.497559300000006</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>159</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1806,27 +2052,30 @@
         <v>-77.3661089</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>155</v>
+        <v>249</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1838,27 +2087,30 @@
         <v>-77.541145999999998</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>154</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1870,27 +2122,30 @@
         <v>-77.555361099999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>161</v>
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1902,23 +2157,30 @@
         <v>-77.715578399999998</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>164</v>
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,49 +2189,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16B73B9-3462-0A4A-926A-CE8242A2C290}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1981,27 +2246,30 @@
         <v>-77.448892999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2013,27 +2281,30 @@
         <v>-77.4392</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2045,27 +2316,30 @@
         <v>-77.407484600000004</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2077,27 +2351,30 @@
         <v>-77.412748199999996</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2109,27 +2386,30 @@
         <v>-77.389666000000005</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2141,27 +2421,30 @@
         <v>-77.347973999999994</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" t="s">
-        <v>165</v>
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2173,27 +2456,30 @@
         <v>-77.377323099999998</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2205,27 +2491,30 @@
         <v>-77.466695999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>183</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2237,27 +2526,30 @@
         <v>-77.379420300000007</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2269,27 +2561,30 @@
         <v>-77.562668000000002</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>168</v>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>183</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2301,27 +2596,30 @@
         <v>-77.395377400000001</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" t="s">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2333,27 +2631,30 @@
         <v>-77.380240000000001</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>167</v>
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2365,27 +2666,30 @@
         <v>-77.380240000000001</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>166</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2397,27 +2701,30 @@
         <v>-77.466695999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>168</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2429,27 +2736,30 @@
         <v>-77.536346435546804</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" t="s">
-        <v>135</v>
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2461,27 +2771,30 @@
         <v>-77.542959999999994</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2493,22 +2806,25 @@
         <v>-77.236164000000002</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>176</v>
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2518,49 +2834,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64679B9F-788B-6A42-BFF4-03A92283B977}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2572,27 +2891,30 @@
         <v>-77.413260300000005</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>195</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2604,27 +2926,30 @@
         <v>-77.435420399999998</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2636,27 +2961,30 @@
         <v>-77.541605000000004</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>199</v>
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="J4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2668,27 +2996,30 @@
         <v>-77.305379000000002</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" t="s">
         <v>201</v>
       </c>
-      <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2700,22 +3031,25 @@
         <v>-77.715578399999998</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>205</v>
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>201</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2725,49 +3059,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A12236-1633-1947-8F3B-096E6F4405B8}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>239</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2779,22 +3116,25 @@
         <v>-77.715578399999998</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
+        <v>195</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2804,10 +3144,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EF9FA5-7C7F-064B-B5CA-FFFD01C96843}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,41 +3155,44 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2861,27 +3204,30 @@
         <v>-77.448892999999998</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>213</v>
+        <v>75</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>207</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2893,27 +3239,30 @@
         <v>-77.457563199999996</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2925,27 +3274,30 @@
         <v>-77.375699499999996</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>217</v>
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2957,27 +3309,30 @@
         <v>-77.435420399999998</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2989,27 +3344,30 @@
         <v>-77.397841900000003</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3021,27 +3379,30 @@
         <v>-77.235717500000007</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3053,27 +3414,30 @@
         <v>-77.486551599999999</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3085,27 +3449,30 @@
         <v>-77.399366999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>225</v>
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3117,27 +3484,30 @@
         <v>-77.191912599999995</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3149,27 +3519,30 @@
         <v>-77.103767599999998</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3181,74 +3554,118 @@
         <v>-77.408413899999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>39.1470634</v>
+      </c>
+      <c r="D13">
+        <v>-77.219173600000005</v>
+      </c>
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{792C529C-E681-3D48-98F8-4F74C0E04DA1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2C862-AC3E-DE4F-8A67-934BAA6E1674}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3260,27 +3677,30 @@
         <v>-77.478551199999998</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3292,22 +3712,60 @@
         <v>-77.222458900000007</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>39.10313</v>
+      </c>
+      <c r="D4">
+        <v>-77.206726000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3317,49 +3775,52 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD137E7-C1CF-D041-88E9-84F391570960}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3371,27 +3832,30 @@
         <v>-77.393666100000004</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>102</v>
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{4CA610BB-B5EA-AD43-A8EB-8E80EF2004D0}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{4CA610BB-B5EA-AD43-A8EB-8E80EF2004D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shinyapp/data/healthsep.xlsx
+++ b/shinyapp/data/healthsep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D631641F-0A94-AB42-B84B-9B31C2218565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2F6AA5-5BBA-E246-A9A7-08CF0AA1F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15220" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27160" windowHeight="15880" firstSheet="4" activeTab="5" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="299">
   <si>
     <t>Food Pantry</t>
   </si>
@@ -52,9 +52,6 @@
     <t>21630 Ridgetop Circle, Sterling, VA 20166</t>
   </si>
   <si>
-    <t>Free Family Essentials and COVID Relief</t>
-  </si>
-  <si>
     <t>304 East Church Road, Sterling, VA 20164</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>2938 Prosperity Avenue, Fairfax, VA 22031</t>
   </si>
   <si>
-    <t>Warehouse Food Distribution</t>
-  </si>
-  <si>
     <t>46833 Harry Byrd Highway, Sterling, VA 20164</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>102 Elden Street, Herndon, VA, 20170</t>
   </si>
   <si>
-    <t>Pregnancy Services by A Woman's Choice</t>
-  </si>
-  <si>
     <t>10 Cardinal Park Drive Southeast, Leesburg, VA 20175</t>
   </si>
   <si>
@@ -181,9 +172,6 @@
     <t>21010 South Bank St , Sterling, VA 20165</t>
   </si>
   <si>
-    <t>Supportive Tools for Advanceent and Restoration by By Your Side Ministries Inc.</t>
-  </si>
-  <si>
     <t>46950 Community Plaza, Sterling, VA 20164</t>
   </si>
   <si>
@@ -304,9 +292,6 @@
     <t>3023 Hamaker Court, Fairfax, VA 22031</t>
   </si>
   <si>
-    <t>Child Development Porgram by Children's National Health System</t>
-  </si>
-  <si>
     <t>8609 Sudley Road, Manassas, VA, 20110</t>
   </si>
   <si>
@@ -373,9 +358,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Physical Therapy by Pivot Physical Therapy of Virgina </t>
-  </si>
-  <si>
     <t>Loudoun Hunger Relief Food Pantry</t>
   </si>
   <si>
@@ -508,9 +490,6 @@
     <t>Provides clothing, school supplies, and haircuts</t>
   </si>
   <si>
-    <t>Provides maternity and baby clothes, English and Spanish,</t>
-  </si>
-  <si>
     <t>Monday: 8:30 AM - 4:30 PM EDTTuesday: 8:30 AM - 4:30 PM EDTWednesday: 8:30 AM - 7:30 PM EDTThursday: 8:30 AM - 4:30 PM EDTFriday: 8:30 AM - 4:30 PM EDTSaturday: 10:00 AM - 12:00 PM EDT</t>
   </si>
   <si>
@@ -761,13 +740,211 @@
   </si>
   <si>
     <t>Langauge</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.loudounhunger.org/</t>
+  </si>
+  <si>
+    <t>Inmed Partnerships for Children</t>
+  </si>
+  <si>
+    <t>https://inmedusa.org/adult-programs/</t>
+  </si>
+  <si>
+    <t>http://www.sterlingumc.org/serve/serve-the-community/</t>
+  </si>
+  <si>
+    <t>https://www.dsfp.org/</t>
+  </si>
+  <si>
+    <t>https://www.foodforothers.org/warehouse-distributions/</t>
+  </si>
+  <si>
+    <t>Food for Others, INC.</t>
+  </si>
+  <si>
+    <t>https://www.linkagainsthunger.org/</t>
+  </si>
+  <si>
+    <t>https://www.adamscenter.org/sterling</t>
+  </si>
+  <si>
+    <t>https://www.crossroadsnova.org/grace-ministries</t>
+  </si>
+  <si>
+    <t>https://mcleanbible.org/loudoun/local-outreach/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/1578/WIC-Program</t>
+  </si>
+  <si>
+    <t>https://www.tolministries.org/the-clothing-closet/</t>
+  </si>
+  <si>
+    <t>https://womengivingback.org/</t>
+  </si>
+  <si>
+    <t>Provides maternity and baby clothes</t>
+  </si>
+  <si>
+    <t>A Woman's Choice</t>
+  </si>
+  <si>
+    <t>https://www.awomanschoicecenter.com/page/2-Free%20Services/</t>
+  </si>
+  <si>
+    <t>https://salvationarmypotomac.org/</t>
+  </si>
+  <si>
+    <t>https://www.mobilehopeloudoun.org/what-we-do/</t>
+  </si>
+  <si>
+    <t>https://therapeuticalliancellc.com/mental-health-services/family-counseling-services/</t>
+  </si>
+  <si>
+    <t>https://therapeuticalliancellc.com/mental-health-services/autism-behavior-services/</t>
+  </si>
+  <si>
+    <t>http://ipscenter.org/psychotherapy/</t>
+  </si>
+  <si>
+    <t>http://www.safeharbor1.com/index.php</t>
+  </si>
+  <si>
+    <t>https://healthconnectamerica.com/services/behavioral-therapy-services/</t>
+  </si>
+  <si>
+    <t>https://adoptionsupport.org/</t>
+  </si>
+  <si>
+    <t>Supportive Tools for Advancement and Restoration by By Your Side Ministries Inc.</t>
+  </si>
+  <si>
+    <t>http://bysm.org/</t>
+  </si>
+  <si>
+    <t>https://wind-opt.com/</t>
+  </si>
+  <si>
+    <t>http://www.fcsva.org/</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/healthcare-services/hiv/clinical</t>
+  </si>
+  <si>
+    <t>http://lcsj.org/</t>
+  </si>
+  <si>
+    <t>https://www.vaoxfordhouse.org/how-to-apply/</t>
+  </si>
+  <si>
+    <t>http://meridiansrecovery.org/meridians_recovery_model</t>
+  </si>
+  <si>
+    <t>http://meridiansrecovery.org/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/index.aspx?NID=121</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/our-services/behavioral-health-services/programs-and-services/inova-cats-program/services/intensive-outpatient</t>
+  </si>
+  <si>
+    <t>http://fccgw.org/</t>
+  </si>
+  <si>
+    <t>http://www.novadentalclinic.org/referring-agencies/</t>
+  </si>
+  <si>
+    <t>https://www.loudoun.gov/index.aspx?nid=1258</t>
+  </si>
+  <si>
+    <t>https://hwnova.org/service/dental-services/</t>
+  </si>
+  <si>
+    <t>https://www.tolministries.org/branches/healthcare/</t>
+  </si>
+  <si>
+    <t>https://www.inova.org/inova-medical-group/primary-care</t>
+  </si>
+  <si>
+    <t>https://www.patientfirst.com/services/primary-care</t>
+  </si>
+  <si>
+    <t>https://hwnova.org/service/medical-services/</t>
+  </si>
+  <si>
+    <t>Child Development Program by Children's National Health System</t>
+  </si>
+  <si>
+    <t>https://childrensnational.org/departments/child-development-program</t>
+  </si>
+  <si>
+    <t>Children's National Health System</t>
+  </si>
+  <si>
+    <t>Pediatric primary and comprehensive care</t>
+  </si>
+  <si>
+    <t>https://childrensnational.org/primary-care</t>
+  </si>
+  <si>
+    <t>Monday - Thursday 8:30 - 5:00, Friday 8:30 - 12:00, Saturday 9:00 - 12:00</t>
+  </si>
+  <si>
+    <t>550 Quince Orchard Road, Gaithersburg, MD 20878</t>
+  </si>
+  <si>
+    <t>https://childrensnational.org/departments/center-for-neuroscience-and-behavioral-medicine/programs-and-services/hearing-and-speech</t>
+  </si>
+  <si>
+    <t>Hearing and Speech Center by Children's National Health System</t>
+  </si>
+  <si>
+    <t>Provides screenings, evaluations, treatment and management for hearing and communication disorders</t>
+  </si>
+  <si>
+    <t>Monday - Friday 8:30 - 4:30</t>
+  </si>
+  <si>
+    <t>English, Spanish</t>
+  </si>
+  <si>
+    <t>9850 Key West Avenue, Rockville, MD 20850</t>
+  </si>
+  <si>
+    <t>http://valleyhealthclinic.org/</t>
+  </si>
+  <si>
+    <t>http://firstchoicehome.care/services-page/</t>
+  </si>
+  <si>
+    <t>http://cpgva.com/</t>
+  </si>
+  <si>
+    <t>https://www.neighborhoodhealthtn.org/</t>
+  </si>
+  <si>
+    <t>http://speechhearing.org/</t>
+  </si>
+  <si>
+    <t>http://nationalspeech.com/</t>
+  </si>
+  <si>
+    <t>Physical Therapy by Pivot Physical Therapy of Virginia</t>
+  </si>
+  <si>
+    <t>https://www.pivotphysicaltherapy.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -820,6 +997,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -842,7 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -855,6 +1039,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1170,51 +1355,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED281DF8-A059-C649-B840-3FA6955A4302}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="21.1640625" customWidth="1"/>
-    <col min="8" max="9" width="61.6640625" customWidth="1"/>
+    <col min="7" max="8" width="21.1640625" customWidth="1"/>
+    <col min="9" max="10" width="61.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1228,25 +1416,28 @@
         <v>-77.402006200000002</v>
       </c>
       <c r="E2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" t="s">
-        <v>113</v>
+      <c r="H2" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1260,25 +1451,28 @@
         <v>-77.382812299999998</v>
       </c>
       <c r="E3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>115</v>
+      <c r="H3" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1292,25 +1486,28 @@
         <v>-77.408413899999999</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
+        <v>235</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1324,25 +1521,28 @@
         <v>-77.392816800000006</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1356,25 +1556,28 @@
         <v>-77.532362000000006</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>144</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>121</v>
+        <v>138</v>
+      </c>
+      <c r="H6" t="s">
+        <v>137</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1388,25 +1591,28 @@
         <v>-77.2368594</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>146</v>
+        <v>240</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1420,25 +1626,28 @@
         <v>-77.379435099999995</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>147</v>
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1452,25 +1661,28 @@
         <v>-77.379055100000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1484,25 +1696,28 @@
         <v>-77.497559300000006</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s">
-        <v>151</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1516,25 +1731,28 @@
         <v>-77.252410999999995</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>148</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1548,93 +1766,106 @@
         <v>-77.435420399999998</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
+        <v>18</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>245</v>
       </c>
       <c r="G12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
-      <c r="H13" s="6"/>
+      <c r="F13" s="3"/>
       <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
-      <c r="H14" s="6"/>
+      <c r="F14" s="3"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="6"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="3"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
-      <c r="J16" s="1"/>
+      <c r="F16" s="3"/>
+      <c r="K16" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{AEA8528C-53A2-6A4D-B4CC-6035D2EBAE81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A4A50A-4A53-C540-8D4A-7EEAF78263BE}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1646,27 +1877,30 @@
         <v>-77.426618700000006</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1678,27 +1912,30 @@
         <v>-77.392816800000006</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1710,27 +1947,30 @@
         <v>-77.457413900000006</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1742,27 +1982,30 @@
         <v>-77.715368299999994</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>142</v>
+        <v>24</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="G5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
         <v>135</v>
       </c>
-      <c r="H5" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1774,27 +2017,30 @@
         <v>-77.497559300000006</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>159</v>
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="H6" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1806,27 +2052,30 @@
         <v>-77.3661089</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>155</v>
+        <v>249</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1838,27 +2087,30 @@
         <v>-77.541145999999998</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>154</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1870,27 +2122,30 @@
         <v>-77.555361099999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>161</v>
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="G9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1902,23 +2157,30 @@
         <v>-77.715578399999998</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>164</v>
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,49 +2189,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D16B73B9-3462-0A4A-926A-CE8242A2C290}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1981,27 +2246,30 @@
         <v>-77.448892999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2013,27 +2281,30 @@
         <v>-77.4392</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2045,27 +2316,30 @@
         <v>-77.407484600000004</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2077,27 +2351,30 @@
         <v>-77.412748199999996</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2109,27 +2386,30 @@
         <v>-77.389666000000005</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2141,27 +2421,30 @@
         <v>-77.347973999999994</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="H7" t="s">
-        <v>165</v>
+        <v>260</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="I7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2173,27 +2456,30 @@
         <v>-77.377323099999998</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2205,27 +2491,30 @@
         <v>-77.466695999999999</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>183</v>
+        <v>46</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
+        <v>129</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2237,27 +2526,30 @@
         <v>-77.379420300000007</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2269,27 +2561,30 @@
         <v>-77.562668000000002</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>168</v>
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" t="s">
+        <v>183</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2301,27 +2596,30 @@
         <v>-77.395377400000001</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="G12" t="s">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2333,27 +2631,30 @@
         <v>-77.380240000000001</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>167</v>
+        <v>54</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>266</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="I13" t="s">
+        <v>158</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2365,27 +2666,30 @@
         <v>-77.380240000000001</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" t="s">
-        <v>166</v>
+        <v>55</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2397,27 +2701,30 @@
         <v>-77.466695999999999</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>168</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H15" t="s">
+        <v>164</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2429,27 +2736,30 @@
         <v>-77.536346435546804</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" t="s">
-        <v>135</v>
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="H16" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="I16" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2461,27 +2771,30 @@
         <v>-77.542959999999994</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="G17" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -2493,22 +2806,25 @@
         <v>-77.236164000000002</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>176</v>
+        <v>62</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="G18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="J18" t="s">
-        <v>65</v>
+        <v>161</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2518,49 +2834,52 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64679B9F-788B-6A42-BFF4-03A92283B977}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2572,27 +2891,30 @@
         <v>-77.413260300000005</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" t="s">
-        <v>195</v>
+        <v>65</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="G2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="K2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2604,27 +2926,30 @@
         <v>-77.435420399999998</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>197</v>
+        <v>66</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2636,27 +2961,30 @@
         <v>-77.541605000000004</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" t="s">
-        <v>199</v>
+        <v>68</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="H4" t="s">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="J4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2668,27 +2996,30 @@
         <v>-77.305379000000002</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" t="s">
         <v>201</v>
       </c>
-      <c r="G5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I5" t="s">
-        <v>208</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2700,22 +3031,25 @@
         <v>-77.715578399999998</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
-        <v>205</v>
+        <v>72</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>201</v>
+      </c>
+      <c r="K6" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2725,49 +3059,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A12236-1633-1947-8F3B-096E6F4405B8}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>239</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2779,22 +3116,25 @@
         <v>-77.715578399999998</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>72</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
+        <v>195</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2804,10 +3144,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EF9FA5-7C7F-064B-B5CA-FFFD01C96843}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2815,41 +3155,44 @@
     <col min="1" max="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2861,27 +3204,30 @@
         <v>-77.448892999999998</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>213</v>
+        <v>75</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>254</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H2" t="s">
         <v>207</v>
       </c>
       <c r="I2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2893,27 +3239,30 @@
         <v>-77.457563199999996</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>215</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2925,27 +3274,30 @@
         <v>-77.375699499999996</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" t="s">
-        <v>217</v>
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2957,27 +3309,30 @@
         <v>-77.435420399999998</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="H5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2989,27 +3344,30 @@
         <v>-77.397841900000003</v>
       </c>
       <c r="E6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>219</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3021,27 +3379,30 @@
         <v>-77.235717500000007</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>223</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H7" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="I7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3053,27 +3414,30 @@
         <v>-77.486551599999999</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>207</v>
+        <v>162</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3085,27 +3449,30 @@
         <v>-77.399366999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="G9" t="s">
-        <v>225</v>
+        <v>85</v>
+      </c>
+      <c r="F9" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3117,27 +3484,30 @@
         <v>-77.191912599999995</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3149,27 +3519,30 @@
         <v>-77.103767599999998</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3181,74 +3554,118 @@
         <v>-77.408413899999999</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" t="s">
-        <v>232</v>
+        <v>235</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="G12" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>39.1470634</v>
+      </c>
+      <c r="D13">
+        <v>-77.219173600000005</v>
+      </c>
+      <c r="E13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" t="s">
+        <v>283</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{792C529C-E681-3D48-98F8-4F74C0E04DA1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A2C862-AC3E-DE4F-8A67-934BAA6E1674}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3260,27 +3677,30 @@
         <v>-77.478551199999998</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>135</v>
+        <v>92</v>
+      </c>
+      <c r="F2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3292,22 +3712,60 @@
         <v>-77.222458900000007</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>39.10313</v>
+      </c>
+      <c r="D4">
+        <v>-77.206726000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3317,49 +3775,52 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD137E7-C1CF-D041-88E9-84F391570960}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I1" t="s">
-        <v>238</v>
-      </c>
       <c r="J1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3371,27 +3832,30 @@
         <v>-77.393666100000004</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>102</v>
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{4CA610BB-B5EA-AD43-A8EB-8E80EF2004D0}"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{4CA610BB-B5EA-AD43-A8EB-8E80EF2004D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shinyapp/data/healthsep.xlsx
+++ b/shinyapp/data/healthsep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99427AA4-5A83-844E-B55B-828E128FF281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2F6AA5-5BBA-E246-A9A7-08CF0AA1F02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14040" windowHeight="15880" firstSheet="4" activeTab="7" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27160" windowHeight="15880" firstSheet="4" activeTab="5" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EF9FA5-7C7F-064B-B5CA-FFFD01C96843}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3777,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD137E7-C1CF-D041-88E9-84F391570960}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/shinyapp/data/healthsep.xlsx
+++ b/shinyapp/data/healthsep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandaljuba/Downloads/DSPG-R-Training/2022_DSPG_Loudoun/shinyapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D8EAF1-403A-C948-B771-61967D4F900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70D3DF6-EC93-E542-9E71-EB30ACB4C2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="500" windowWidth="12180" windowHeight="15880" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28120" windowHeight="15880" xr2:uid="{50EDF1E3-090C-764C-AD30-7DACD88F2D61}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED281DF8-A059-C649-B840-3FA6955A4302}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A66" sqref="A61:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
